--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>F3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.848467000000001</v>
+        <v>198.2465873333333</v>
       </c>
       <c r="N2">
-        <v>29.545401</v>
+        <v>594.7397619999999</v>
       </c>
       <c r="O2">
-        <v>0.0466568297496787</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="P2">
-        <v>0.0466568297496787</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="Q2">
-        <v>0.174948167788</v>
+        <v>3.521652377389333</v>
       </c>
       <c r="R2">
-        <v>1.574533510092</v>
+        <v>31.69487139650399</v>
       </c>
       <c r="S2">
-        <v>0.0466568297496787</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="T2">
-        <v>0.0466568297496787</v>
+        <v>0.9851515664921635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -614,90 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>198.2465873333333</v>
+        <v>2.988018666666667</v>
       </c>
       <c r="N3">
-        <v>594.7397619999999</v>
+        <v>8.964055999999999</v>
       </c>
       <c r="O3">
-        <v>0.9391875175767094</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="P3">
-        <v>0.9391875175767094</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="Q3">
-        <v>3.521652377389333</v>
+        <v>0.05307916359466666</v>
       </c>
       <c r="R3">
-        <v>31.69487139650399</v>
+        <v>0.477712472352</v>
       </c>
       <c r="S3">
-        <v>0.9391875175767094</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="T3">
-        <v>0.9391875175767094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.017764</v>
-      </c>
-      <c r="H4">
-        <v>0.053292</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.988018666666667</v>
-      </c>
-      <c r="N4">
-        <v>8.964055999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.01415565267361191</v>
-      </c>
-      <c r="P4">
-        <v>0.01415565267361191</v>
-      </c>
-      <c r="Q4">
-        <v>0.05307916359466666</v>
-      </c>
-      <c r="R4">
-        <v>0.477712472352</v>
-      </c>
-      <c r="S4">
-        <v>0.01415565267361191</v>
-      </c>
-      <c r="T4">
-        <v>0.01415565267361191</v>
+        <v>0.01484843350783645</v>
       </c>
     </row>
   </sheetData>
